--- a/Stockdz.xlsx
+++ b/Stockdz.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>BPCL</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>ORIENTCEM</t>
+  </si>
+  <si>
+    <t>TVSMOTOR</t>
   </si>
 </sst>
 </file>
@@ -447,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -950,6 +953,20 @@
         <v>27</v>
       </c>
     </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>532343</v>
+      </c>
+      <c r="C23">
+        <v>539</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Stockdz.xlsx
+++ b/Stockdz.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>BPCL</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>TVSMOTOR</t>
+  </si>
+  <si>
+    <t>MINDAIND</t>
   </si>
 </sst>
 </file>
@@ -450,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -967,6 +970,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>532539</v>
+      </c>
+      <c r="C24">
+        <v>647</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Stockdz.xlsx
+++ b/Stockdz.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shtn\Documents\python\Practice\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView windowWidth="21000" windowHeight="8592"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -72,43 +67,43 @@
     <t>103.2</t>
   </si>
   <si>
+    <t>36.78</t>
+  </si>
+  <si>
+    <t>10490839.0</t>
+  </si>
+  <si>
+    <t>UBL</t>
+  </si>
+  <si>
+    <t>1450.0</t>
+  </si>
+  <si>
+    <t>20.7</t>
+  </si>
+  <si>
+    <t>763486.0</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>171.0</t>
+  </si>
+  <si>
+    <t>31.41</t>
+  </si>
+  <si>
+    <t>5180721.0</t>
+  </si>
+  <si>
+    <t>HINDZINC</t>
+  </si>
+  <si>
+    <t>307.95</t>
+  </si>
+  <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>36.78</t>
-  </si>
-  <si>
-    <t>10490839.0</t>
-  </si>
-  <si>
-    <t>UBL</t>
-  </si>
-  <si>
-    <t>1450.0</t>
-  </si>
-  <si>
-    <t>20.7</t>
-  </si>
-  <si>
-    <t>763486.0</t>
-  </si>
-  <si>
-    <t>BEL</t>
-  </si>
-  <si>
-    <t>171.0</t>
-  </si>
-  <si>
-    <t>31.41</t>
-  </si>
-  <si>
-    <t>5180721.0</t>
-  </si>
-  <si>
-    <t>HINDZINC</t>
-  </si>
-  <si>
-    <t>307.95</t>
   </si>
   <si>
     <t>53.86</t>
@@ -531,23 +526,180 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF3C4043"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -556,12 +708,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -595,32 +933,318 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -669,7 +1293,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -704,7 +1328,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -878,65 +1502,60 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="10.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="17.6666666666667" customWidth="1"/>
     <col min="7" max="7" width="38" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" customWidth="1"/>
-    <col min="9" max="9" width="17.77734375" customWidth="1"/>
+    <col min="8" max="8" width="16.1111111111111" customWidth="1"/>
+    <col min="9" max="9" width="17.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="15" customHeight="1" spans="1:11">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:11">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -961,7 +1580,7 @@
       <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J2" t="s">
@@ -971,7 +1590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" ht="15" customHeight="1" spans="1:11">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -996,19 +1615,19 @@
       <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" t="s">
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:11">
+      <c r="A4" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>20</v>
       </c>
       <c r="B4">
         <v>532478</v>
@@ -1029,21 +1648,21 @@
         <v>10</v>
       </c>
       <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>22</v>
       </c>
-      <c r="K4" t="s">
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:11">
+      <c r="A5" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>24</v>
       </c>
       <c r="B5">
         <v>500049</v>
@@ -1064,21 +1683,21 @@
         <v>10</v>
       </c>
       <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>26</v>
       </c>
-      <c r="K5" t="s">
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:11">
+      <c r="A6" s="2" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="B6">
         <v>500188</v>
@@ -1099,10 +1718,10 @@
         <v>10</v>
       </c>
       <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="J6" t="s">
         <v>30</v>
@@ -1111,7 +1730,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" ht="15" customHeight="1" spans="1:11">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1133,7 +1752,7 @@
       <c r="H7" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J7" t="s">
@@ -1143,7 +1762,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" ht="15" customHeight="1" spans="1:11">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1165,7 +1784,7 @@
       <c r="H8" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J8" t="s">
@@ -1175,7 +1794,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" ht="15" customHeight="1" spans="1:11">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1197,7 +1816,7 @@
       <c r="H9" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J9" t="s">
@@ -1207,7 +1826,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" ht="15" customHeight="1" spans="1:11">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1229,7 +1848,7 @@
       <c r="H10" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J10" t="s">
@@ -1239,7 +1858,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" ht="15" customHeight="1" spans="1:11">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1261,8 +1880,8 @@
       <c r="H11" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>12</v>
+      <c r="I11" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="J11" t="s">
         <v>50</v>
@@ -1271,7 +1890,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" ht="15" customHeight="1" spans="1:11">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -1293,7 +1912,7 @@
       <c r="H12" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J12" t="s">
@@ -1303,7 +1922,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" ht="15" customHeight="1" spans="1:11">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -1325,7 +1944,7 @@
       <c r="H13" t="s">
         <v>57</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J13" t="s">
@@ -1335,7 +1954,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" ht="15" customHeight="1" spans="1:11">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -1357,7 +1976,7 @@
       <c r="H14" t="s">
         <v>61</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J14" t="s">
@@ -1367,7 +1986,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" ht="15" customHeight="1" spans="1:11">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -1392,7 +2011,7 @@
       <c r="H15" t="s">
         <v>66</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J15" t="s">
@@ -1402,7 +2021,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" ht="15" customHeight="1" spans="1:11">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -1427,7 +2046,7 @@
       <c r="H16" t="s">
         <v>70</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J16" t="s">
@@ -1437,7 +2056,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" ht="15" customHeight="1" spans="1:11">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -1459,7 +2078,7 @@
       <c r="H17" t="s">
         <v>74</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J17" t="s">
@@ -1469,7 +2088,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" ht="15" customHeight="1" spans="1:11">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -1491,8 +2110,8 @@
       <c r="H18" t="s">
         <v>78</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>17</v>
+      <c r="I18" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="J18" t="s">
         <v>79</v>
@@ -1501,7 +2120,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" ht="15" customHeight="1" spans="1:11">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -1523,7 +2142,7 @@
       <c r="H19" t="s">
         <v>82</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J19" t="s">
@@ -1533,7 +2152,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" ht="15" customHeight="1" spans="1:11">
       <c r="A20" t="s">
         <v>85</v>
       </c>
@@ -1555,7 +2174,7 @@
       <c r="H20" t="s">
         <v>86</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J20" t="s">
@@ -1565,7 +2184,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" ht="15" customHeight="1" spans="1:11">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -1587,8 +2206,8 @@
       <c r="H21" t="s">
         <v>90</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>17</v>
+      <c r="I21" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="J21" t="s">
         <v>91</v>
@@ -1597,7 +2216,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" ht="15" customHeight="1" spans="1:11">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -1619,7 +2238,7 @@
       <c r="H22" t="s">
         <v>94</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J22" t="s">
@@ -1629,7 +2248,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" ht="15" customHeight="1" spans="1:11">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -1642,7 +2261,7 @@
       <c r="H23" t="s">
         <v>98</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J23" t="s">
@@ -1652,7 +2271,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11">
       <c r="A24" s="2" t="s">
         <v>101</v>
       </c>
@@ -1665,8 +2284,8 @@
       <c r="H24" t="s">
         <v>102</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>17</v>
+      <c r="I24" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="J24" t="s">
         <v>103</v>
@@ -1675,7 +2294,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" ht="15" customHeight="1" spans="1:11">
       <c r="A25" t="s">
         <v>105</v>
       </c>
@@ -1686,7 +2305,7 @@
         <v>106</v>
       </c>
       <c r="I25" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J25" t="s">
         <v>107</v>
@@ -1695,7 +2314,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" ht="15" customHeight="1" spans="1:11">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -1705,7 +2324,7 @@
       <c r="H26" t="s">
         <v>110</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J26" t="s">
@@ -1715,7 +2334,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" ht="15" customHeight="1" spans="1:11">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -1725,7 +2344,7 @@
       <c r="H27" t="s">
         <v>114</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J27" t="s">
@@ -1735,7 +2354,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" ht="15" customHeight="1" spans="1:11">
       <c r="A28" t="s">
         <v>117</v>
       </c>
@@ -1745,7 +2364,7 @@
       <c r="H28" t="s">
         <v>118</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J28" t="s">
@@ -1755,7 +2374,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" ht="15" customHeight="1" spans="1:11">
       <c r="A29" t="s">
         <v>121</v>
       </c>
@@ -1768,7 +2387,7 @@
       <c r="H29" t="s">
         <v>123</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J29" t="s">
@@ -1778,7 +2397,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" ht="15" customHeight="1" spans="1:11">
       <c r="A30" t="s">
         <v>126</v>
       </c>
@@ -1788,7 +2407,7 @@
       <c r="H30" t="s">
         <v>127</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J30" t="s">
@@ -1798,7 +2417,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" ht="15" customHeight="1" spans="1:11">
       <c r="A31" t="s">
         <v>130</v>
       </c>
@@ -1808,7 +2427,7 @@
       <c r="H31" t="s">
         <v>131</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J31" t="s">
@@ -1818,7 +2437,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" ht="15" customHeight="1" spans="1:11">
       <c r="A32" t="s">
         <v>134</v>
       </c>
@@ -1831,7 +2450,7 @@
       <c r="H32" t="s">
         <v>136</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J32" t="s">
@@ -1841,7 +2460,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" ht="15" customHeight="1" spans="1:11">
       <c r="A33" t="s">
         <v>139</v>
       </c>
@@ -1854,7 +2473,7 @@
       <c r="H33" t="s">
         <v>141</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J33" t="s">
@@ -1864,7 +2483,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" ht="15" customHeight="1" spans="1:11">
       <c r="A34" t="s">
         <v>144</v>
       </c>
@@ -1874,7 +2493,7 @@
       <c r="H34" t="s">
         <v>145</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J34" t="s">
@@ -1884,7 +2503,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" ht="15" customHeight="1" spans="1:11">
       <c r="A35" t="s">
         <v>148</v>
       </c>
@@ -1894,7 +2513,7 @@
       <c r="H35" t="s">
         <v>149</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J35" t="s">
@@ -1904,7 +2523,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" ht="15" customHeight="1" spans="1:11">
       <c r="A36" t="s">
         <v>152</v>
       </c>
@@ -1914,7 +2533,7 @@
       <c r="H36" t="s">
         <v>153</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J36" t="s">
@@ -1924,7 +2543,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" ht="15" customHeight="1" spans="1:11">
       <c r="A37" t="s">
         <v>156</v>
       </c>
@@ -1934,7 +2553,7 @@
       <c r="H37" t="s">
         <v>157</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J37" t="s">
@@ -1944,7 +2563,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" ht="15" customHeight="1" spans="1:11">
       <c r="A38" t="s">
         <v>160</v>
       </c>
@@ -1954,7 +2573,7 @@
       <c r="H38" t="s">
         <v>161</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J38" t="s">
@@ -1964,7 +2583,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" ht="15" customHeight="1" spans="1:11">
       <c r="A39" t="s">
         <v>164</v>
       </c>
@@ -1977,7 +2596,7 @@
       <c r="H39" t="s">
         <v>166</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J39" t="s">
@@ -1989,6 +2608,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Stockdz.xlsx
+++ b/Stockdz.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shtn\Documents\python\TradingSetUp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8592"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="8592"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="170">
   <si>
     <t>Stock</t>
   </si>
@@ -521,19 +526,16 @@
   </si>
   <si>
     <t>2187864.0</t>
+  </si>
+  <si>
+    <t>GUJALKALI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,161 +547,10 @@
       <sz val="10"/>
       <color rgb="FF3C4043"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -708,198 +559,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -933,251 +598,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1190,61 +613,17 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1502,29 +881,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="10.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="17.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
     <col min="7" max="7" width="38" customWidth="1"/>
-    <col min="8" max="8" width="16.1111111111111" customWidth="1"/>
-    <col min="9" max="9" width="17.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:11">
+    <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1555,7 +934,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:11">
+    <row r="2" spans="1:11" ht="15" customHeight="1">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1590,7 +969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:11">
+    <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1625,7 +1004,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:11">
+    <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1660,7 +1039,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:11">
+    <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1695,7 +1074,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:11">
+    <row r="6" spans="1:11" ht="15" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
@@ -1730,7 +1109,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:11">
+    <row r="7" spans="1:11" ht="15" customHeight="1">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1762,7 +1141,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:11">
+    <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1794,7 +1173,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:11">
+    <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1826,7 +1205,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:11">
+    <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1858,7 +1237,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" spans="1:11">
+    <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1890,7 +1269,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="1:11">
+    <row r="12" spans="1:11" ht="15" customHeight="1">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -1922,7 +1301,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" spans="1:11">
+    <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -1954,7 +1333,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" spans="1:11">
+    <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -1986,7 +1365,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" spans="1:11">
+    <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -2021,7 +1400,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" spans="1:11">
+    <row r="16" spans="1:11" ht="15" customHeight="1">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -2056,7 +1435,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" spans="1:11">
+    <row r="17" spans="1:11" ht="15" customHeight="1">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -2088,7 +1467,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" spans="1:11">
+    <row r="18" spans="1:11" ht="15" customHeight="1">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -2120,7 +1499,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" spans="1:11">
+    <row r="19" spans="1:11" ht="15" customHeight="1">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -2152,7 +1531,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" spans="1:11">
+    <row r="20" spans="1:11" ht="15" customHeight="1">
       <c r="A20" t="s">
         <v>85</v>
       </c>
@@ -2184,7 +1563,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" spans="1:11">
+    <row r="21" spans="1:11" ht="15" customHeight="1">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -2216,7 +1595,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" spans="1:11">
+    <row r="22" spans="1:11" ht="15" customHeight="1">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -2248,7 +1627,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" spans="1:11">
+    <row r="23" spans="1:11" ht="15" customHeight="1">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -2294,7 +1673,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" spans="1:11">
+    <row r="25" spans="1:11" ht="15" customHeight="1">
       <c r="A25" t="s">
         <v>105</v>
       </c>
@@ -2314,7 +1693,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" spans="1:11">
+    <row r="26" spans="1:11" ht="15" customHeight="1">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -2334,7 +1713,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" spans="1:11">
+    <row r="27" spans="1:11" ht="15" customHeight="1">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -2354,7 +1733,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" spans="1:11">
+    <row r="28" spans="1:11" ht="15" customHeight="1">
       <c r="A28" t="s">
         <v>117</v>
       </c>
@@ -2374,7 +1753,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" spans="1:11">
+    <row r="29" spans="1:11" ht="15" customHeight="1">
       <c r="A29" t="s">
         <v>121</v>
       </c>
@@ -2397,7 +1776,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" spans="1:11">
+    <row r="30" spans="1:11" ht="15" customHeight="1">
       <c r="A30" t="s">
         <v>126</v>
       </c>
@@ -2417,7 +1796,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1" spans="1:11">
+    <row r="31" spans="1:11" ht="15" customHeight="1">
       <c r="A31" t="s">
         <v>130</v>
       </c>
@@ -2437,7 +1816,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1" spans="1:11">
+    <row r="32" spans="1:11" ht="15" customHeight="1">
       <c r="A32" t="s">
         <v>134</v>
       </c>
@@ -2460,7 +1839,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1" spans="1:11">
+    <row r="33" spans="1:11" ht="15" customHeight="1">
       <c r="A33" t="s">
         <v>139</v>
       </c>
@@ -2483,7 +1862,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1" spans="1:11">
+    <row r="34" spans="1:11" ht="15" customHeight="1">
       <c r="A34" t="s">
         <v>144</v>
       </c>
@@ -2503,7 +1882,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1" spans="1:11">
+    <row r="35" spans="1:11" ht="15" customHeight="1">
       <c r="A35" t="s">
         <v>148</v>
       </c>
@@ -2523,7 +1902,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1" spans="1:11">
+    <row r="36" spans="1:11" ht="15" customHeight="1">
       <c r="A36" t="s">
         <v>152</v>
       </c>
@@ -2543,7 +1922,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1" spans="1:11">
+    <row r="37" spans="1:11" ht="15" customHeight="1">
       <c r="A37" t="s">
         <v>156</v>
       </c>
@@ -2563,7 +1942,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1" spans="1:11">
+    <row r="38" spans="1:11" ht="15" customHeight="1">
       <c r="A38" t="s">
         <v>160</v>
       </c>
@@ -2583,7 +1962,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1" spans="1:11">
+    <row r="39" spans="1:11" ht="15" customHeight="1">
       <c r="A39" t="s">
         <v>164</v>
       </c>
@@ -2606,9 +1985,16 @@
         <v>168</v>
       </c>
     </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40">
+        <v>446</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/Stockdz.xlsx
+++ b/Stockdz.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="172">
   <si>
     <t>Stock</t>
   </si>
@@ -529,18 +529,31 @@
   </si>
   <si>
     <t>GUJALKALI</t>
+  </si>
+  <si>
+    <t>ABCAPITAL</t>
+  </si>
+  <si>
+    <t>Buy at 100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -602,16 +615,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -887,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1993,6 +2007,17 @@
         <v>446</v>
       </c>
     </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41">
+        <v>103</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Stockdz.xlsx
+++ b/Stockdz.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="173">
   <si>
     <t>Stock</t>
   </si>
@@ -535,6 +535,9 @@
   </si>
   <si>
     <t>Buy at 100</t>
+  </si>
+  <si>
+    <t>EDELWEISS</t>
   </si>
 </sst>
 </file>
@@ -901,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1976,7 +1979,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1">
+    <row r="39" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A39" t="s">
         <v>164</v>
       </c>
@@ -1999,15 +2002,18 @@
         <v>168</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" ht="15" thickBot="1">
       <c r="A40" t="s">
         <v>169</v>
       </c>
       <c r="C40">
         <v>446</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="I40" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15" thickBot="1">
       <c r="A41" t="s">
         <v>170</v>
       </c>
@@ -2016,6 +2022,17 @@
       </c>
       <c r="G41" s="5" t="s">
         <v>171</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Stockdz.xlsx
+++ b/Stockdz.xlsx
@@ -906,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1390,7 +1390,7 @@
         <v>532345</v>
       </c>
       <c r="C15">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="D15">
         <v>172</v>

--- a/Stockdz.xlsx
+++ b/Stockdz.xlsx
@@ -906,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1672,7 +1672,7 @@
         <v>101</v>
       </c>
       <c r="C24">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1964,7 +1964,7 @@
         <v>160</v>
       </c>
       <c r="C38">
-        <v>450</v>
+        <v>495</v>
       </c>
       <c r="H38" t="s">
         <v>161</v>
@@ -2018,7 +2018,7 @@
         <v>170</v>
       </c>
       <c r="C41">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>171</v>

--- a/Stockdz.xlsx
+++ b/Stockdz.xlsx
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$50</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="186">
   <si>
     <t>Stock</t>
   </si>
@@ -538,18 +541,64 @@
   </si>
   <si>
     <t>EDELWEISS</t>
+  </si>
+  <si>
+    <t>RAYMOND</t>
+  </si>
+  <si>
+    <t>NTPC</t>
+  </si>
+  <si>
+    <t>JSWSTEEL</t>
+  </si>
+  <si>
+    <t>POWERGRID</t>
+  </si>
+  <si>
+    <t>JKTYRE</t>
+  </si>
+  <si>
+    <t>UFLEX</t>
+  </si>
+  <si>
+    <t>GUJGASLTD</t>
+  </si>
+  <si>
+    <t>Strong DZ @547</t>
+  </si>
+  <si>
+    <t>Strong DZ @427.5</t>
+  </si>
+  <si>
+    <t>LAURUSLABS</t>
+  </si>
+  <si>
+    <t>Strong DZ @517</t>
+  </si>
+  <si>
+    <t>CHAMBLFERT</t>
+  </si>
+  <si>
+    <t>ZEEL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -618,16 +667,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -904,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -920,7 +970,7 @@
     <col min="9" max="9" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1">
+    <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -951,7 +1001,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1">
+    <row r="2" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -986,7 +1036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1">
+    <row r="3" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1021,7 +1071,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1">
+    <row r="4" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1056,7 +1106,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1">
+    <row r="5" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1091,7 +1141,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
@@ -1126,7 +1176,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1158,7 +1208,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1">
+    <row r="8" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1190,7 +1240,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1">
+    <row r="9" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1198,7 +1248,7 @@
         <v>531642</v>
       </c>
       <c r="C9">
-        <v>427.2</v>
+        <v>452</v>
       </c>
       <c r="E9">
         <v>393</v>
@@ -1206,8 +1256,8 @@
       <c r="F9">
         <v>460</v>
       </c>
-      <c r="G9" t="s">
-        <v>10</v>
+      <c r="G9" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="H9" t="s">
         <v>41</v>
@@ -1222,7 +1272,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1">
+    <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1254,8 +1304,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
-      <c r="A11" t="s">
+    <row r="11" spans="1:11" ht="15" customHeight="1" thickBot="1">
+      <c r="A11" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B11">
@@ -1286,7 +1336,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1">
+    <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -1318,7 +1368,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1">
+    <row r="13" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -1350,7 +1400,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1">
+    <row r="14" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -1382,7 +1432,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1">
+    <row r="15" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -1417,7 +1467,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1">
+    <row r="16" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -1452,7 +1502,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1">
+    <row r="17" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -1484,7 +1534,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1">
+    <row r="18" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -1516,7 +1566,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1">
+    <row r="19" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -1548,7 +1598,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1">
+    <row r="20" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A20" t="s">
         <v>85</v>
       </c>
@@ -1580,7 +1630,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1">
+    <row r="21" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -1612,7 +1662,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1">
+    <row r="22" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -1644,7 +1694,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1">
+    <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -1690,7 +1740,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1">
+    <row r="25" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A25" t="s">
         <v>105</v>
       </c>
@@ -1710,12 +1760,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1">
+    <row r="26" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A26" t="s">
         <v>109</v>
       </c>
       <c r="C26">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H26" t="s">
         <v>110</v>
@@ -1730,7 +1780,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1">
+    <row r="27" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -1750,7 +1800,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1">
+    <row r="28" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A28" t="s">
         <v>117</v>
       </c>
@@ -1770,7 +1820,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1">
+    <row r="29" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A29" t="s">
         <v>121</v>
       </c>
@@ -1793,7 +1843,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1">
+    <row r="30" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A30" t="s">
         <v>126</v>
       </c>
@@ -1813,7 +1863,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1">
+    <row r="31" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A31" t="s">
         <v>130</v>
       </c>
@@ -1833,7 +1883,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1">
+    <row r="32" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A32" t="s">
         <v>134</v>
       </c>
@@ -1856,7 +1906,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1">
+    <row r="33" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A33" t="s">
         <v>139</v>
       </c>
@@ -1879,7 +1929,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1">
+    <row r="34" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A34" t="s">
         <v>144</v>
       </c>
@@ -1899,7 +1949,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1">
+    <row r="35" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A35" t="s">
         <v>148</v>
       </c>
@@ -1919,7 +1969,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1">
+    <row r="36" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A36" t="s">
         <v>152</v>
       </c>
@@ -1939,7 +1989,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1">
+    <row r="37" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A37" t="s">
         <v>156</v>
       </c>
@@ -1959,7 +2009,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1">
+    <row r="38" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A38" t="s">
         <v>160</v>
       </c>
@@ -2035,7 +2085,102 @@
         <v>74</v>
       </c>
     </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C43">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>176</v>
+      </c>
+      <c r="C46">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50">
+        <v>610</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51">
+        <v>540</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>184</v>
+      </c>
+      <c r="C52">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53">
+        <v>156</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:K50"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
